--- a/Assets/Excel/TaskData_4.xlsx
+++ b/Assets/Excel/TaskData_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18645" windowHeight="11025"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="57">
   <si>
     <t>taskId</t>
   </si>
@@ -143,12 +143,6 @@
   </si>
   <si>
     <t>解锁巨型木灵芽新区域</t>
-  </si>
-  <si>
-    <t>生产木灵芽</t>
-  </si>
-  <si>
-    <t>出售木灵芽</t>
   </si>
   <si>
     <t>解锁巨型铁矿石新区域</t>
@@ -833,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -849,14 +843,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1171,14 +1162,14 @@
   <sheetPr/>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="23.375" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="28.625" customWidth="1"/>
     <col min="3" max="3" width="21.875" customWidth="1"/>
     <col min="4" max="4" width="19.125" customWidth="1"/>
     <col min="5" max="5" width="20.625" customWidth="1"/>
@@ -1849,7 +1840,7 @@
       <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C34" s="1">
@@ -1869,7 +1860,7 @@
       <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="1">
@@ -1889,8 +1880,8 @@
       <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>38</v>
+      <c r="B36" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C36" s="1">
         <v>30</v>
@@ -1909,8 +1900,8 @@
       <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>39</v>
+      <c r="B37" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C37" s="1">
         <v>30</v>
@@ -1929,7 +1920,7 @@
       <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="1">
@@ -1949,7 +1940,7 @@
       <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="1">
@@ -1969,7 +1960,7 @@
       <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="1">
@@ -1989,7 +1980,7 @@
       <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="1">
@@ -2009,7 +2000,7 @@
       <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C42" s="1">
@@ -2029,7 +2020,7 @@
       <c r="A43" s="1">
         <v>40</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C43" s="1">
@@ -2049,7 +2040,7 @@
       <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="1">
@@ -2069,8 +2060,8 @@
       <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>40</v>
+      <c r="B45" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -2089,7 +2080,7 @@
       <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C46" s="1">
@@ -2109,7 +2100,7 @@
       <c r="A47" s="1">
         <v>44</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="1">
@@ -2129,7 +2120,7 @@
       <c r="A48" s="1">
         <v>45</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C48" s="1">
@@ -2149,8 +2140,8 @@
       <c r="A49" s="1">
         <v>46</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>41</v>
+      <c r="B49" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C49" s="1">
         <v>40</v>
@@ -2169,7 +2160,7 @@
       <c r="A50" s="1">
         <v>47</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C50" s="1">
@@ -2189,7 +2180,7 @@
       <c r="A51" s="1">
         <v>48</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C51" s="1">
@@ -2209,8 +2200,8 @@
       <c r="A52" s="1">
         <v>49</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>42</v>
+      <c r="B52" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C52" s="1">
         <v>10</v>
@@ -2229,7 +2220,7 @@
       <c r="A53" s="1">
         <v>50</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C53" s="1">
@@ -2249,8 +2240,8 @@
       <c r="A54" s="1">
         <v>51</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>41</v>
+      <c r="B54" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C54" s="1">
         <v>50</v>
@@ -2269,7 +2260,7 @@
       <c r="A55" s="1">
         <v>52</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C55" s="1">
@@ -2289,8 +2280,8 @@
       <c r="A56" s="1">
         <v>53</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>43</v>
+      <c r="B56" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -2309,8 +2300,8 @@
       <c r="A57" s="1">
         <v>54</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>44</v>
+      <c r="B57" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -2329,8 +2320,8 @@
       <c r="A58" s="1">
         <v>55</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>45</v>
+      <c r="B58" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -2349,8 +2340,8 @@
       <c r="A59" s="1">
         <v>56</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>46</v>
+      <c r="B59" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C59" s="1">
         <v>10</v>
@@ -2369,8 +2360,8 @@
       <c r="A60" s="1">
         <v>57</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>47</v>
+      <c r="B60" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C60" s="1">
         <v>10</v>
@@ -2389,8 +2380,8 @@
       <c r="A61" s="1">
         <v>58</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>48</v>
+      <c r="B61" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C61" s="1">
         <v>10</v>
@@ -2409,8 +2400,8 @@
       <c r="A62" s="1">
         <v>59</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>49</v>
+      <c r="B62" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C62" s="1">
         <v>10</v>
@@ -2429,10 +2420,10 @@
       <c r="A63" s="1">
         <v>60</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" s="6">
+      <c r="B63" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="5">
         <v>20</v>
       </c>
       <c r="D63" s="1">
@@ -2449,7 +2440,7 @@
       <c r="A64" s="1">
         <v>61</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="1">
@@ -2469,7 +2460,7 @@
       <c r="A65" s="1">
         <v>62</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C65" s="1">
@@ -2489,8 +2480,8 @@
       <c r="A66" s="1">
         <v>63</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>41</v>
+      <c r="B66" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C66" s="1">
         <v>60</v>
@@ -2509,7 +2500,7 @@
       <c r="A67" s="1">
         <v>64</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C67" s="1">
@@ -2529,7 +2520,7 @@
       <c r="A68" s="1">
         <v>65</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C68" s="1">
@@ -2549,7 +2540,7 @@
       <c r="A69" s="1">
         <v>66</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C69" s="1">
@@ -2569,7 +2560,7 @@
       <c r="A70" s="1">
         <v>67</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="1">
@@ -2589,8 +2580,8 @@
       <c r="A71" s="1">
         <v>68</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>50</v>
+      <c r="B71" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -2609,8 +2600,8 @@
       <c r="A72" s="1">
         <v>69</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>46</v>
+      <c r="B72" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C72" s="1">
         <v>20</v>
@@ -2629,8 +2620,8 @@
       <c r="A73" s="1">
         <v>70</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>47</v>
+      <c r="B73" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C73" s="1">
         <v>20</v>
@@ -2649,8 +2640,8 @@
       <c r="A74" s="1">
         <v>71</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>48</v>
+      <c r="B74" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C74" s="1">
         <v>20</v>
@@ -2669,7 +2660,7 @@
       <c r="A75" s="1">
         <v>72</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C75" s="1">
@@ -2689,7 +2680,7 @@
       <c r="A76" s="1">
         <v>73</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C76" s="1">
@@ -2709,8 +2700,8 @@
       <c r="A77" s="1">
         <v>74</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>49</v>
+      <c r="B77" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C77" s="1">
         <v>30</v>
@@ -2729,8 +2720,8 @@
       <c r="A78" s="1">
         <v>75</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>41</v>
+      <c r="B78" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C78" s="1">
         <v>80</v>
@@ -2749,7 +2740,7 @@
       <c r="A79" s="1">
         <v>76</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C79" s="1">
@@ -2769,7 +2760,7 @@
       <c r="A80" s="1">
         <v>77</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C80" s="1">
@@ -2789,8 +2780,8 @@
       <c r="A81" s="1">
         <v>78</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>42</v>
+      <c r="B81" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C81" s="1">
         <v>30</v>
@@ -2809,7 +2800,7 @@
       <c r="A82" s="1">
         <v>79</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C82" s="1">
@@ -2829,7 +2820,7 @@
       <c r="A83" s="1">
         <v>80</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C83" s="1">
@@ -2849,7 +2840,7 @@
       <c r="A84" s="1">
         <v>81</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C84" s="1">
@@ -2869,8 +2860,8 @@
       <c r="A85" s="1">
         <v>82</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>48</v>
+      <c r="B85" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C85" s="1">
         <v>30</v>
@@ -2889,8 +2880,8 @@
       <c r="A86" s="1">
         <v>83</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>49</v>
+      <c r="B86" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C86" s="1">
         <v>40</v>
@@ -2909,8 +2900,8 @@
       <c r="A87" s="1">
         <v>84</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>51</v>
+      <c r="B87" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -2929,8 +2920,8 @@
       <c r="A88" s="1">
         <v>85</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>52</v>
+      <c r="B88" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -2949,8 +2940,8 @@
       <c r="A89" s="1">
         <v>86</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>53</v>
+      <c r="B89" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
@@ -2969,8 +2960,8 @@
       <c r="A90" s="1">
         <v>87</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>54</v>
+      <c r="B90" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C90" s="1">
         <v>10</v>
@@ -2989,8 +2980,8 @@
       <c r="A91" s="1">
         <v>88</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>55</v>
+      <c r="B91" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C91" s="1">
         <v>10</v>
@@ -3009,8 +3000,8 @@
       <c r="A92" s="1">
         <v>89</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>56</v>
+      <c r="B92" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C92" s="1">
         <v>10</v>
@@ -3029,8 +3020,8 @@
       <c r="A93" s="1">
         <v>90</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>57</v>
+      <c r="B93" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C93" s="1">
         <v>20</v>
@@ -3049,8 +3040,8 @@
       <c r="A94" s="1">
         <v>91</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>49</v>
+      <c r="B94" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C94" s="1">
         <v>50</v>
@@ -3069,7 +3060,7 @@
       <c r="A95" s="1">
         <v>92</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C95" s="1">
@@ -3089,7 +3080,7 @@
       <c r="A96" s="1">
         <v>93</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C96" s="1">
@@ -3109,8 +3100,8 @@
       <c r="A97" s="1">
         <v>94</v>
       </c>
-      <c r="B97" s="7" t="s">
-        <v>49</v>
+      <c r="B97" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C97" s="1">
         <v>60</v>
@@ -3129,7 +3120,7 @@
       <c r="A98" s="1">
         <v>95</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C98" s="1">
@@ -3149,8 +3140,8 @@
       <c r="A99" s="1">
         <v>96</v>
       </c>
-      <c r="B99" s="7" t="s">
-        <v>41</v>
+      <c r="B99" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C99" s="1">
         <v>100</v>
@@ -3169,8 +3160,8 @@
       <c r="A100" s="1">
         <v>97</v>
       </c>
-      <c r="B100" s="7" t="s">
-        <v>42</v>
+      <c r="B100" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C100" s="1">
         <v>40</v>
@@ -3189,8 +3180,8 @@
       <c r="A101" s="1">
         <v>98</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>54</v>
+      <c r="B101" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="C101" s="1">
         <v>30</v>
@@ -3209,8 +3200,8 @@
       <c r="A102" s="1">
         <v>99</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>56</v>
+      <c r="B102" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C102" s="1">
         <v>30</v>
@@ -3229,8 +3220,8 @@
       <c r="A103" s="1">
         <v>100</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>58</v>
+      <c r="B103" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="C103" s="1">
         <v>800000</v>
